--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/20.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/20.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1871569841139539</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.600200454214683</v>
+        <v>-1.602781058564055</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1513806161216932</v>
+        <v>0.1490258835162274</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2452108157003494</v>
+        <v>-0.2445261173825836</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2038432870585936</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.532409024679383</v>
+        <v>-1.536532954777191</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0998299158799744</v>
+        <v>0.09854551627699304</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2486264371935719</v>
+        <v>-0.2479102584933801</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2204790412291453</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.487408605010957</v>
+        <v>-1.493678710180659</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09556904611861343</v>
+        <v>0.09453963761328278</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2583759116309083</v>
+        <v>-0.2577415819250242</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2225677469517514</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.557024322707844</v>
+        <v>-1.563052028932865</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1220660840065892</v>
+        <v>0.1218425732913645</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2354031025555248</v>
+        <v>-0.2353873623643118</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2129770931689041</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.591638577204368</v>
+        <v>-1.596399198036741</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1068484671418542</v>
+        <v>0.1077488060792382</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2610863725577881</v>
+        <v>-0.2610155416973296</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2005941203524146</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.478496508746153</v>
+        <v>-1.482766822622241</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1195397833169016</v>
+        <v>0.1216033223849268</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2528731407828411</v>
+        <v>-0.2529030471461458</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1925488128529793</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.264276441384932</v>
+        <v>-1.266605202674897</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1559909181279829</v>
+        <v>0.1593845033535072</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2587363620096862</v>
+        <v>-0.2587096036846241</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1891398484197175</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.006896769717647</v>
+        <v>-1.007087226031325</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1773582276996398</v>
+        <v>0.1818803846351366</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2558700731897977</v>
+        <v>-0.2557488737174575</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1881599897924968</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5944258459903625</v>
+        <v>-0.5933161625098455</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1662314865311652</v>
+        <v>0.1712762178149339</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.16418031133579</v>
+        <v>-0.1647752905636416</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1858316086912368</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2213109093625197</v>
+        <v>-0.2185595239384861</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1362448482512658</v>
+        <v>0.1410755129345376</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1284390591484152</v>
+        <v>-0.1285870169458175</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1760222905258574</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2398955814080374</v>
+        <v>0.2434087920867805</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1013110678731183</v>
+        <v>0.1046810428118231</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03848858842344485</v>
+        <v>-0.0386271021061193</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.149263214307994</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7639353414817966</v>
+        <v>0.7696254206052987</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.007149867718348149</v>
+        <v>-0.005845005866789879</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0552127698675851</v>
+        <v>0.05529776690013534</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.09879226828106588</v>
       </c>
       <c r="E14" t="n">
-        <v>1.308607344197565</v>
+        <v>1.31543858718401</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2316112904923114</v>
+        <v>-0.2293809053974284</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1589233157509661</v>
+        <v>0.1594207057932971</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.02652844699544992</v>
       </c>
       <c r="E15" t="n">
-        <v>1.870093019167068</v>
+        <v>1.877143050811374</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4434553759899284</v>
+        <v>-0.4411840663978915</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2925008744610277</v>
+        <v>0.2930108566563291</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.06180729250317581</v>
       </c>
       <c r="E16" t="n">
-        <v>2.34200283996247</v>
+        <v>2.350099594322441</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6679309649359834</v>
+        <v>-0.6665820305490286</v>
       </c>
       <c r="G16" t="n">
-        <v>0.436651119608866</v>
+        <v>0.4371075851540432</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.1595589887183732</v>
       </c>
       <c r="E17" t="n">
-        <v>2.797251668358904</v>
+        <v>2.806247187637137</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8809469076694088</v>
+        <v>-0.8811814365184826</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5553557716417573</v>
+        <v>0.5564575850266679</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.2581627280452563</v>
       </c>
       <c r="E18" t="n">
-        <v>3.22099020796602</v>
+        <v>3.229411210264978</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.208856015133496</v>
+        <v>-1.209194429244576</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6767803287162563</v>
+        <v>0.6780725984148441</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.3529966868900531</v>
       </c>
       <c r="E19" t="n">
-        <v>3.595504447592698</v>
+        <v>3.603651570564551</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.507323881943214</v>
+        <v>-1.508981324077944</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8377442461178285</v>
+        <v>0.8389593888794726</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.4426732013951835</v>
       </c>
       <c r="E20" t="n">
-        <v>3.720423327116485</v>
+        <v>3.730769354800795</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.842880361308141</v>
+        <v>-1.844518915213415</v>
       </c>
       <c r="G20" t="n">
-        <v>1.013725879955731</v>
+        <v>1.01492370850704</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.5272710991805282</v>
       </c>
       <c r="E21" t="n">
-        <v>3.970785234531451</v>
+        <v>3.980906177481415</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.078944666034772</v>
+        <v>-2.081356063328605</v>
       </c>
       <c r="G21" t="n">
-        <v>1.181391970775801</v>
+        <v>1.182452859663558</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.6086328070958983</v>
       </c>
       <c r="E22" t="n">
-        <v>4.175300687000292</v>
+        <v>4.185945778317649</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.374972016196914</v>
+        <v>-2.375991980587516</v>
       </c>
       <c r="G22" t="n">
-        <v>1.321468654437713</v>
+        <v>1.322767220212786</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.6879420785240321</v>
       </c>
       <c r="E23" t="n">
-        <v>4.400591617851181</v>
+        <v>4.410435533435796</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.507041664588769</v>
+        <v>-2.508508650409822</v>
       </c>
       <c r="G23" t="n">
-        <v>1.492356762399086</v>
+        <v>1.493299599852745</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.7658381989875687</v>
       </c>
       <c r="E24" t="n">
-        <v>4.528594000833595</v>
+        <v>4.538127834651314</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.622159914053777</v>
+        <v>-2.623418342341257</v>
       </c>
       <c r="G24" t="n">
-        <v>1.596105084741379</v>
+        <v>1.597137641284952</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.8416344390435524</v>
       </c>
       <c r="E25" t="n">
-        <v>4.669959806155853</v>
+        <v>4.678308403575231</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.818466856805035</v>
+        <v>-2.818296075730374</v>
       </c>
       <c r="G25" t="n">
-        <v>1.659297230404237</v>
+        <v>1.660314046756598</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.9128805883177018</v>
       </c>
       <c r="E26" t="n">
-        <v>4.783378901979416</v>
+        <v>4.790606797784429</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.908366171908563</v>
+        <v>-2.908118263896958</v>
       </c>
       <c r="G26" t="n">
-        <v>1.702535535666367</v>
+        <v>1.70313208891334</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.9756090018859506</v>
       </c>
       <c r="E27" t="n">
-        <v>4.893782177166568</v>
+        <v>4.898940237827071</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.981224368995329</v>
+        <v>-2.980072974008098</v>
       </c>
       <c r="G27" t="n">
-        <v>1.752908869605353</v>
+        <v>1.753096177880788</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.0254838224142</v>
       </c>
       <c r="E28" t="n">
-        <v>4.892951095070521</v>
+        <v>4.897784907792036</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.070225706190155</v>
+        <v>-3.068341605301958</v>
       </c>
       <c r="G28" t="n">
-        <v>1.793737351592772</v>
+        <v>1.793557913412943</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.058871472567052</v>
       </c>
       <c r="E29" t="n">
-        <v>4.901560979664036</v>
+        <v>4.905568432346867</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.083764631662023</v>
+        <v>-3.081481516926576</v>
       </c>
       <c r="G29" t="n">
-        <v>1.724894477284443</v>
+        <v>1.725218725223431</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.073472384723118</v>
       </c>
       <c r="E30" t="n">
-        <v>4.843034226676712</v>
+        <v>4.84714556462155</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.073521702230159</v>
+        <v>-3.070978087330137</v>
       </c>
       <c r="G30" t="n">
-        <v>1.688895085961176</v>
+        <v>1.688956472706906</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.068391409120417</v>
       </c>
       <c r="E31" t="n">
-        <v>4.717747026678541</v>
+        <v>4.721268107452891</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.061899932048035</v>
+        <v>-3.058624398256609</v>
       </c>
       <c r="G31" t="n">
-        <v>1.630136952163021</v>
+        <v>1.630155840392476</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.043943940475628</v>
       </c>
       <c r="E32" t="n">
-        <v>4.637089564845731</v>
+        <v>4.639779563524034</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.022855600734611</v>
+        <v>-3.019528911321742</v>
       </c>
       <c r="G32" t="n">
-        <v>1.592782330376313</v>
+        <v>1.592390399615109</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.002336805311896</v>
       </c>
       <c r="E33" t="n">
-        <v>4.559314132024021</v>
+        <v>4.560024014647728</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.953808103940514</v>
+        <v>-2.950283088118361</v>
       </c>
       <c r="G33" t="n">
-        <v>1.563642514383673</v>
+        <v>1.562348670665964</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.9477076280861155</v>
       </c>
       <c r="E34" t="n">
-        <v>4.356334922217569</v>
+        <v>4.357858572726989</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.881677890697349</v>
+        <v>-2.877630300526924</v>
       </c>
       <c r="G34" t="n">
-        <v>1.513450192643637</v>
+        <v>1.511632200558535</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.8842238204035495</v>
       </c>
       <c r="E35" t="n">
-        <v>4.131753873990387</v>
+        <v>4.132805318763416</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.849987376718642</v>
+        <v>-2.845360547511578</v>
       </c>
       <c r="G35" t="n">
-        <v>1.392496267286407</v>
+        <v>1.390958450604896</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8154331134576472</v>
       </c>
       <c r="E36" t="n">
-        <v>3.980592947676276</v>
+        <v>3.980808588295894</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.824735387955615</v>
+        <v>-2.819765422580108</v>
       </c>
       <c r="G36" t="n">
-        <v>1.366117280832529</v>
+        <v>1.363981336884924</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.7439419031793244</v>
       </c>
       <c r="E37" t="n">
-        <v>3.784767654776136</v>
+        <v>3.784330077460414</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.761037982154818</v>
+        <v>-2.756018435176991</v>
       </c>
       <c r="G37" t="n">
-        <v>1.279067727348115</v>
+        <v>1.277243439186528</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6713020339560676</v>
       </c>
       <c r="E38" t="n">
-        <v>3.715120456696823</v>
+        <v>3.713049047533191</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.729862959438337</v>
+        <v>-2.72419098153473</v>
       </c>
       <c r="G38" t="n">
-        <v>1.236038766629118</v>
+        <v>1.233485707614369</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5985118523115137</v>
       </c>
       <c r="E39" t="n">
-        <v>3.505014088309122</v>
+        <v>3.502265850923331</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.74714726340934</v>
+        <v>-2.741010949864949</v>
       </c>
       <c r="G39" t="n">
-        <v>1.160710933541031</v>
+        <v>1.158236575482347</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5262386687088353</v>
       </c>
       <c r="E40" t="n">
-        <v>3.259009065821916</v>
+        <v>3.256216755900729</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.712255981547468</v>
+        <v>-2.705675007601309</v>
       </c>
       <c r="G40" t="n">
-        <v>1.096579098462756</v>
+        <v>1.094093722270223</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4547643254760171</v>
       </c>
       <c r="E41" t="n">
-        <v>3.087102567489062</v>
+        <v>3.083822311640271</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.65125487050146</v>
+        <v>-2.645031198895837</v>
       </c>
       <c r="G41" t="n">
-        <v>1.064669008816627</v>
+        <v>1.061963269947112</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3847344911055348</v>
       </c>
       <c r="E42" t="n">
-        <v>2.973146731145135</v>
+        <v>2.968347546844289</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.620522147158063</v>
+        <v>-2.613991541823787</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9805376867831056</v>
+        <v>0.978042866475844</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3167491898182756</v>
       </c>
       <c r="E43" t="n">
-        <v>2.839901290469667</v>
+        <v>2.834113622160645</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.603736807248513</v>
+        <v>-2.596697006728496</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9284266357342038</v>
+        <v>0.9259900541344303</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2509489236297311</v>
       </c>
       <c r="E44" t="n">
-        <v>2.7109639401292</v>
+        <v>2.704291673074007</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.532002459814355</v>
+        <v>-2.525354590055542</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8645545138109432</v>
+        <v>0.8617307235073297</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1871336291674852</v>
       </c>
       <c r="E45" t="n">
-        <v>2.514516909676146</v>
+        <v>2.507734461282462</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.466559466808037</v>
+        <v>-2.460121728601917</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8344860265367361</v>
+        <v>0.8314843720724157</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1248375581129599</v>
       </c>
       <c r="E46" t="n">
-        <v>2.388595379972092</v>
+        <v>2.381178601872523</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.427323892171374</v>
+        <v>-2.42009442234724</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7712199019751763</v>
+        <v>0.7682387097594328</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.06394503073525473</v>
       </c>
       <c r="E47" t="n">
-        <v>2.225401077475636</v>
+        <v>2.218085036599831</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.29206134599196</v>
+        <v>-2.285917949361524</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7149471443695554</v>
+        <v>0.7119281756949006</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.005211669611740307</v>
       </c>
       <c r="E48" t="n">
-        <v>2.13754877423936</v>
+        <v>2.129327672368806</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.251454013691085</v>
+        <v>-2.244427592333599</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6662564368712399</v>
+        <v>0.6631304348963367</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.05056761217988561</v>
       </c>
       <c r="E49" t="n">
-        <v>1.984288106417433</v>
+        <v>1.975753774741741</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.19956962139565</v>
+        <v>-2.192458990015174</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5920036588430012</v>
+        <v>0.5886588682102373</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.1028914679183272</v>
       </c>
       <c r="E50" t="n">
-        <v>1.890775630420959</v>
+        <v>1.88226963108945</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.152141277232618</v>
+        <v>-2.145018053699172</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5352980459790226</v>
+        <v>0.5321232494113592</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.1514502026166595</v>
       </c>
       <c r="E51" t="n">
-        <v>1.76671301729916</v>
+        <v>1.75836284586066</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.102118162548121</v>
+        <v>-2.09481943588265</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4904479451366809</v>
+        <v>0.4872149098615293</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1961736334014263</v>
       </c>
       <c r="E52" t="n">
-        <v>1.654691650455312</v>
+        <v>1.646711373510317</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.983995110580551</v>
+        <v>-1.977972913422454</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4547869679244925</v>
+        <v>0.451549210591977</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.2377658998022125</v>
       </c>
       <c r="E53" t="n">
-        <v>1.611598154952341</v>
+        <v>1.602615227827078</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.924378349351726</v>
+        <v>-1.918375827432646</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3834964938825418</v>
+        <v>0.3808159393189667</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.2768741372328204</v>
       </c>
       <c r="E54" t="n">
-        <v>1.568320499212179</v>
+        <v>1.558174371956275</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.913965425854762</v>
+        <v>-1.907606388604707</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3492600039751305</v>
+        <v>0.3465275067805525</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.3141023923394788</v>
       </c>
       <c r="E55" t="n">
-        <v>1.513204645660714</v>
+        <v>1.502461965157837</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.849022183919456</v>
+        <v>-1.843051929392362</v>
       </c>
       <c r="G55" t="n">
-        <v>0.322429274033439</v>
+        <v>0.3194339156456037</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.3506055837675027</v>
       </c>
       <c r="E56" t="n">
-        <v>1.455716745293449</v>
+        <v>1.444142982694525</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.787252164532692</v>
+        <v>-1.781865084090041</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2149505263736641</v>
+        <v>0.2131152200782275</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3870858532969885</v>
       </c>
       <c r="E57" t="n">
-        <v>1.464995588013517</v>
+        <v>1.452785921689587</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.784753409177628</v>
+        <v>-1.77947965811171</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2156446688061577</v>
+        <v>0.2135150209350379</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.4237605978260706</v>
       </c>
       <c r="E58" t="n">
-        <v>1.449960557366852</v>
+        <v>1.436900920717421</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.769999340944115</v>
+        <v>-1.764805864853384</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2111083456985691</v>
+        <v>0.2088559243359878</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.4609167879793825</v>
       </c>
       <c r="E59" t="n">
-        <v>1.438319111945712</v>
+        <v>1.424492927984207</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.733359323838478</v>
+        <v>-1.728963875442246</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1370838004429191</v>
+        <v>0.1354373764420386</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.4987411059307086</v>
       </c>
       <c r="E60" t="n">
-        <v>1.471560821768462</v>
+        <v>1.45591192366449</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.765740045201876</v>
+        <v>-1.760918037623771</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1168450625812348</v>
+        <v>0.1150916052801059</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.5376023954797259</v>
       </c>
       <c r="E61" t="n">
-        <v>1.46915099849375</v>
+        <v>1.452705646714401</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.784143476768123</v>
+        <v>-1.779245129262636</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1292168528746582</v>
+        <v>0.1270148001239586</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.5776714773735194</v>
       </c>
       <c r="E62" t="n">
-        <v>1.479783497658137</v>
+        <v>1.462247350627726</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.827869727957857</v>
+        <v>-1.822703010192187</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04161481867866846</v>
+        <v>0.04018403529740613</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.6185873217336917</v>
       </c>
       <c r="E63" t="n">
-        <v>1.466191842545705</v>
+        <v>1.447952108968073</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.788527907030507</v>
+        <v>-1.784306387747178</v>
       </c>
       <c r="G63" t="n">
-        <v>0.007460177765564836</v>
+        <v>0.006103373283003643</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.6591311869955533</v>
       </c>
       <c r="E64" t="n">
-        <v>1.467617903869604</v>
+        <v>1.448794209197969</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.816075602681951</v>
+        <v>-1.811765938327829</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.02267756634997943</v>
+        <v>-0.02409733159739266</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.6979274688304639</v>
       </c>
       <c r="E65" t="n">
-        <v>1.47764597969141</v>
+        <v>1.457644918717042</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.84153693598811</v>
+        <v>-1.83722805864355</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.02592948985458665</v>
+        <v>-0.027407493809488</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.7339899778143369</v>
       </c>
       <c r="E66" t="n">
-        <v>1.441056331197654</v>
+        <v>1.421536920074405</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.846713884878068</v>
+        <v>-1.842878000279459</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.03438984263157785</v>
+        <v>-0.03576868338183725</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.7674976876468643</v>
       </c>
       <c r="E67" t="n">
-        <v>1.406604200670625</v>
+        <v>1.386428423573793</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.858448984436926</v>
+        <v>-1.855051464163598</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.05339927155952626</v>
+        <v>-0.05480014857748387</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.7983094785941257</v>
       </c>
       <c r="E68" t="n">
-        <v>1.356574002900083</v>
+        <v>1.33616841901154</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.888336459512183</v>
+        <v>-1.885316703827968</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.06043513703174033</v>
+        <v>-0.06207683897525695</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.8258050369295659</v>
       </c>
       <c r="E69" t="n">
-        <v>1.252787904098879</v>
+        <v>1.233361360103786</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.909749415638358</v>
+        <v>-1.906871321675059</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.08285231735730472</v>
+        <v>-0.08433976542693387</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.8489300036954488</v>
       </c>
       <c r="E70" t="n">
-        <v>1.269609446448219</v>
+        <v>1.24900081409303</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.914561979101735</v>
+        <v>-1.91269283139519</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.05168831277467241</v>
+        <v>-0.05357556170111193</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.8660296534823666</v>
       </c>
       <c r="E71" t="n">
-        <v>1.262549970689186</v>
+        <v>1.241810694746928</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.949063691231085</v>
+        <v>-1.947595918400472</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.07117309547725363</v>
+        <v>-0.07340348057213669</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.8759445652102152</v>
       </c>
       <c r="E72" t="n">
-        <v>1.246528030053466</v>
+        <v>1.225302382202726</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.978287717246714</v>
+        <v>-1.977170163670591</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1062406674807116</v>
+        <v>-0.1080995840629678</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.8783664439559254</v>
       </c>
       <c r="E73" t="n">
-        <v>1.2516514622933</v>
+        <v>1.229945738610563</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.977977635479818</v>
+        <v>-1.977066278408585</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.0935446292483003</v>
+        <v>-0.09559085410599119</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.8731549217359874</v>
       </c>
       <c r="E74" t="n">
-        <v>1.246897924546972</v>
+        <v>1.22432649034752</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.985912265870295</v>
+        <v>-1.985449504248632</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.07443603711570995</v>
+        <v>-0.07690567311703073</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.8603101045450827</v>
       </c>
       <c r="E75" t="n">
-        <v>1.191470415209489</v>
+        <v>1.169481368084919</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.01861723517268</v>
+        <v>-2.018192250009929</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.04637757225940389</v>
+        <v>-0.04916516012322741</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.8403263109207425</v>
       </c>
       <c r="E76" t="n">
-        <v>1.227591006005098</v>
+        <v>1.205074662474891</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.021922675327412</v>
+        <v>-2.022032856665903</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.02635919707470174</v>
+        <v>-0.02953084560412263</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.813553718459645</v>
       </c>
       <c r="E77" t="n">
-        <v>1.163122330834864</v>
+        <v>1.140975881798163</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.01925786095505</v>
+        <v>-2.019571877769749</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.02805756370658518</v>
+        <v>-0.03094274075592935</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.7805322169474078</v>
       </c>
       <c r="E78" t="n">
-        <v>1.183296533912575</v>
+        <v>1.161376743629342</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.029845500574479</v>
+        <v>-2.030298818081413</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.02268228840734333</v>
+        <v>-0.02573431148354537</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.7418647416946982</v>
       </c>
       <c r="E79" t="n">
-        <v>1.169887465018215</v>
+        <v>1.148435158414007</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.006493352890862</v>
+        <v>-2.007090693147396</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.04441319639602063</v>
+        <v>-0.0470811588066253</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.6979360891719932</v>
       </c>
       <c r="E80" t="n">
-        <v>1.149171799362776</v>
+        <v>1.129273049631293</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.968782215773179</v>
+        <v>-1.969176507563065</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.02794423432985154</v>
+        <v>-0.03074441434664546</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.6489297263941082</v>
       </c>
       <c r="E81" t="n">
-        <v>1.173940564255564</v>
+        <v>1.15515464604284</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.922064541243414</v>
+        <v>-1.922741369465574</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.007968357661424506</v>
+        <v>-0.01080631413712965</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.5950672674403829</v>
       </c>
       <c r="E82" t="n">
-        <v>1.23310007292965</v>
+        <v>1.214424336055417</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.950398459445948</v>
+        <v>-1.950080507583445</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01987446657526336</v>
+        <v>0.0167752229254223</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.536801457925794</v>
       </c>
       <c r="E83" t="n">
-        <v>1.319962318138629</v>
+        <v>1.302183772163537</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.845986688044028</v>
+        <v>-1.845792296682547</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01228612039147274</v>
+        <v>0.009739357453208232</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.4743062976090748</v>
       </c>
       <c r="E84" t="n">
-        <v>1.314158909638393</v>
+        <v>1.298554084069818</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.785430237399787</v>
+        <v>-1.784627487647924</v>
       </c>
       <c r="G84" t="n">
-        <v>0.02277380979669923</v>
+        <v>0.0204143551338695</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.4082613348033897</v>
       </c>
       <c r="E85" t="n">
-        <v>1.422770951065504</v>
+        <v>1.408493023616186</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.757778656486337</v>
+        <v>-1.755834742871531</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01663670924274785</v>
+        <v>0.01462511280572557</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.3394983154813236</v>
       </c>
       <c r="E86" t="n">
-        <v>1.667392410745087</v>
+        <v>1.653539468458519</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.653740714625725</v>
+        <v>-1.651286031806057</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03257680088415991</v>
+        <v>0.03081704750654574</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2695052453173418</v>
       </c>
       <c r="E87" t="n">
-        <v>1.601085281241174</v>
+        <v>1.591000540731</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.534155398894466</v>
+        <v>-1.53102546187176</v>
       </c>
       <c r="G87" t="n">
-        <v>0.05341681405018102</v>
+        <v>0.05179872239348391</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.2009606629789626</v>
       </c>
       <c r="E88" t="n">
-        <v>1.747988485832167</v>
+        <v>1.738657700481097</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.334483990271428</v>
+        <v>-1.331635015661874</v>
       </c>
       <c r="G88" t="n">
-        <v>0.09007886742351663</v>
+        <v>0.08852216251255025</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1383493698185126</v>
       </c>
       <c r="E89" t="n">
-        <v>1.914771551925188</v>
+        <v>1.906482767232419</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.159638798239105</v>
+        <v>-1.157092822310401</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1137647071608494</v>
+        <v>0.1122567968426433</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.08650605775926877</v>
       </c>
       <c r="E90" t="n">
-        <v>1.93521333825352</v>
+        <v>1.929060497508356</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9195190332464427</v>
+        <v>-0.9173374427443199</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1425708310997733</v>
+        <v>0.1410330144182625</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.04900227787424025</v>
       </c>
       <c r="E91" t="n">
-        <v>1.973383301945062</v>
+        <v>1.967934047747119</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6678837443623443</v>
+        <v>-0.6656990058219791</v>
       </c>
       <c r="G91" t="n">
-        <v>0.09556747209949214</v>
+        <v>0.09488119976260503</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.02865657064131085</v>
       </c>
       <c r="E92" t="n">
-        <v>1.98872526632038</v>
+        <v>1.983433414034567</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4627780347230157</v>
+        <v>-0.4604878369015231</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1068343009697625</v>
+        <v>0.1059591463383193</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.02731542856433146</v>
       </c>
       <c r="E93" t="n">
-        <v>1.962122769151277</v>
+        <v>1.956977300643745</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2420423152091711</v>
+        <v>-0.2402731177168291</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09209361189878151</v>
+        <v>0.09133808272055718</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.04345757481504549</v>
       </c>
       <c r="E94" t="n">
-        <v>1.849533181404639</v>
+        <v>1.844889824996801</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.05903583403290402</v>
+        <v>-0.05729024682738156</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06680069863860076</v>
+        <v>0.06613174051204797</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.07127658648090561</v>
       </c>
       <c r="E95" t="n">
-        <v>1.797965166952585</v>
+        <v>1.793902623600508</v>
       </c>
       <c r="F95" t="n">
-        <v>0.07207681073320067</v>
+        <v>0.0742033105660779</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05434863336999102</v>
+        <v>0.05342153610754492</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1030468858715278</v>
       </c>
       <c r="E96" t="n">
-        <v>1.66993759966423</v>
+        <v>1.666265413054235</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1454323978622979</v>
+        <v>0.1475226952553852</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.005183917835843589</v>
+        <v>-0.005722232375328425</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.133189840009477</v>
       </c>
       <c r="E97" t="n">
-        <v>1.503974597533407</v>
+        <v>1.501794581050405</v>
       </c>
       <c r="F97" t="n">
-        <v>0.14957364217044</v>
+        <v>0.1524273388373582</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.02034329599309051</v>
+        <v>-0.02097132962248949</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.16226605569877</v>
       </c>
       <c r="E98" t="n">
-        <v>1.390388655682985</v>
+        <v>1.388635198381856</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1777359922887519</v>
+        <v>0.1802607189593183</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05833067346656131</v>
+        <v>-0.05922943838482401</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1917789807716685</v>
       </c>
       <c r="E99" t="n">
-        <v>1.250637793979182</v>
+        <v>1.249828748150834</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1808163477091374</v>
+        <v>0.18342134935489</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09802586168664336</v>
+        <v>-0.09861454483800981</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2255571831984334</v>
       </c>
       <c r="E100" t="n">
-        <v>1.09146511033765</v>
+        <v>1.091339188807946</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2369364254599921</v>
+        <v>0.2383561907074053</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.145230695134451</v>
+        <v>-0.145408559295158</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.260957684712701</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9095352582403529</v>
+        <v>0.9110919631513192</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2189800153241939</v>
+        <v>0.2206626417648643</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1708525783909836</v>
+        <v>-0.1711359018328177</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3006357696358269</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8496941992867434</v>
+        <v>0.8506590730081007</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2573278431764425</v>
+        <v>0.2583603997200158</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2088840283998508</v>
+        <v>-0.2090272641398892</v>
       </c>
     </row>
   </sheetData>
